--- a/src/assets/zxsj_mb/zxtb_k07_hzbx.xlsx
+++ b/src/assets/zxsj_mb/zxtb_k07_hzbx.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>年度</t>
   </si>
   <si>
+    <t>学校代码</t>
+  </si>
+  <si>
+    <t>学校名称（或分校名称）</t>
+  </si>
+  <si>
     <t>项目名称</t>
   </si>
   <si>
@@ -37,22 +43,34 @@
     <t>备注说明</t>
   </si>
   <si>
+    <t>51252</t>
+  </si>
+  <si>
+    <t>上海开放大学</t>
+  </si>
+  <si>
     <t>项目名称A</t>
   </si>
   <si>
     <t>单位A</t>
   </si>
   <si>
-    <t>A企业；</t>
+    <t>B政府</t>
   </si>
   <si>
     <t>项目名称B</t>
   </si>
   <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
     <t>单位B</t>
   </si>
   <si>
-    <t>B政府；</t>
+    <t>C学校</t>
   </si>
   <si>
     <t>项目名称C</t>
@@ -61,16 +79,19 @@
     <t>单位C</t>
   </si>
   <si>
-    <t>C学校；</t>
+    <t>A企业</t>
+  </si>
+  <si>
+    <t>31030</t>
+  </si>
+  <si>
+    <t>杨浦分校</t>
   </si>
   <si>
     <t>项目名称D</t>
   </si>
   <si>
     <t>单位D</t>
-  </si>
-  <si>
-    <t>D行业。</t>
   </si>
 </sst>
 </file>
@@ -78,9 +99,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -121,38 +142,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,37 +151,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +165,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -211,44 +270,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -259,25 +280,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,25 +394,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,19 +418,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,103 +448,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +500,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,50 +586,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -573,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,24 +1068,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="19.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="20.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="16.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="19.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="23.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="20.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="19.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="20.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="19.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="31" customHeight="1" spans="1:7">
+    <row r="1" customFormat="1" ht="31" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,76 +1109,115 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="26" customHeight="1" spans="1:7">
+    <row r="2" ht="26" customHeight="1" spans="1:9">
       <c r="A2" s="2">
         <v>2018</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" ht="26" customHeight="1" spans="1:7">
+    <row r="3" ht="26" customHeight="1" spans="1:9">
       <c r="A3" s="2">
         <v>2018</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="26" customHeight="1" spans="1:7">
+    <row r="4" ht="26" customHeight="1" spans="1:9">
       <c r="A4" s="2">
         <v>2018</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3"/>
     </row>
-    <row r="5" ht="26" customHeight="1" spans="1:7">
+    <row r="5" ht="26" customHeight="1" spans="1:9">
       <c r="A5" s="2">
         <v>2018</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5">
+      <formula1>"A企业,B政府,C学校,D行业"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
